--- a/Test_Merge.xlsx
+++ b/Test_Merge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\B07_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FA74C5-6F9C-4A36-B731-D1A65092562F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88112235-0606-4460-B969-B9ABF233BDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>C_Id</t>
   </si>
@@ -92,6 +92,21 @@
   </si>
   <si>
     <t>T-shirt</t>
+  </si>
+  <si>
+    <t>O_Date</t>
+  </si>
+  <si>
+    <t>13/2/2024</t>
+  </si>
+  <si>
+    <t>15/2/2024</t>
+  </si>
+  <si>
+    <t>25/2/2024</t>
+  </si>
+  <si>
+    <t>26/2/2024</t>
   </si>
 </sst>
 </file>
@@ -127,8 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,88 +527,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2870D8AC-32E4-4342-86BB-6EC8B76A7BF9}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
+        <v>45628</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>106</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
     </row>
